--- a/medicine/Mort/Destination_finale_3/Destination_finale_3.xlsx
+++ b/medicine/Mort/Destination_finale_3/Destination_finale_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Destination finale 3 ou Destination ultime 3 au Québec (Final Destination 3) est un film américain réalisé par James Wong, sorti en 2006. Le film est le troisième opus de la saga Destination finale après Destination finale du même réalisateur en 2000 et Destination finale 2 de David Richard Ellis en 2003, ainsi que sa suite, Destination finale 4 de David Richard Ellis en 2009, et Destination finale 5, sorti en 2011 par Steven Quale.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wendy Christensen, son petit ami Jason Wise, sa meilleure amie Carrie Dreyer, et le petit ami de cette dernière Kevin Fischer sont dans un parc d'attractions avec leur classe de lycée. Alors qu'ils montent à bord des montagnes russes (The Devil's Flight), Wendy a de mauvais pressentiments. Elle embarque malgré tout, mais a la prémonition que les systèmes hydrauliques qui sécurisent les ceintures de sécurité et les wagons tomberont en panne pendant le trajet, tuant tout le monde à bord. Elle panique et sort de l'attraction, emmenant avec elle sept autres lycéens : Kevin, Ashley Freund, Ashlyn Halperin, Frankie Cheeks, le sportif Lewis Romero, et le couple gothique Ian McKinley et Erin Ulmer. L'accident a lieu, tuant Jason et Carrie.
 Plusieurs semaines plus tard, Kevin parle à Wendy de l'explosion du vol 180, et de la mort subséquente des survivants, pensant qu'ils pourraient se trouver dans une situation similaire. Pensant que Kevin se moque d'elle, Wendy rejette sa théorie. Ashley et Ashlyn meurent dans un salon de bronzage lorsqu'une réaction en chaîne les emprisonne dans des caissons de bronzage surchauffés. Maintenant convaincus que la Mort les poursuit, Wendy et Kevin entreprennent de sauver les survivants restants en utilisant des présages cachés dans les photographies que Wendy a prises la nuit du déraillement des montagnes russes.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Final Destination 3
 Titre français : Destination finale 3
@@ -564,26 +580,26 @@
 Coproduction : Art Schaefer
 Production déléguée : Toby Emmerich, Richard Brener, Matt Moore
 Production associée : Sheila Hanahan
-Sociétés de production[1] : New Line Cinema, Zide/Perry Productions, Hard Eight Pictures, Matinee Pictures et Practical Pictures
+Sociétés de production : New Line Cinema, Zide/Perry Productions, Hard Eight Pictures, Matinee Pictures et Practical Pictures
 En association avec Kumar Mobiliengesellschaft mbH &amp; Co. Projekt Nr. 1 KG
-Sociétés de distribution[1] :
+Sociétés de distribution :
 États-Unis : New Line Cinema
 Canada / Québec : Alliance Atlantis Communications / Alliance Atlantis VivaFilm
 Suisse : Fox-Warner
 Belgique : Kinepolis Film Distribution (KFD)
 France : Metropolitan Filmexport
-Budget : 25 millions de $[2]
+Budget : 25 millions de $
 Pays d'origine :  États-Unis
 Langue originale : anglais
-Format[3] : couleur (Technicolor) (DeLuxe) - 35 mm - 2,39:1 (Cinémascope) - son DTS | Dolby Digital | SDDS
+Format : couleur (Technicolor) (DeLuxe) - 35 mm - 2,39:1 (Cinémascope) - son DTS | Dolby Digital | SDDS
 Genre : épouvante-horreur, thriller, action, fantastique
 Durée : 93 minutes
-Dates de sortie[4] :
-États-Unis, Canada, Québec[5] : 10 février 2006
-France, Belgique, Suisse romande[6] : 22 mars 2006
-Classification[7] :
+Dates de sortie :
+États-Unis, Canada, Québec : 10 février 2006
+France, Belgique, Suisse romande : 22 mars 2006
+Classification :
  États-Unis : Interdit aux moins de 17 ans (R – Restricted)[Note 1].
- France : Interdit aux moins de 12 ans avec avertissement (visa d'exploitation no 114439 délivré le 16 mars 2006)[8],[9],[Note 2]lors de sa sortie en salles et aux moins de 16 ans à la télévision.</t>
+ France : Interdit aux moins de 12 ans avec avertissement (visa d'exploitation no 114439 délivré le 16 mars 2006)[Note 2]lors de sa sortie en salles et aux moins de 16 ans à la télévision.</t>
         </is>
       </c>
     </row>
@@ -611,7 +627,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mary Elizabeth Winstead (VF : Alexandra Garijo ; VQ : Geneviève Désilets) : Wendy Christensen
 Ryan Merriman (VF : Emmanuel Garijo ; VQ : Nicholas Savard L'Herbier) : Kevin Fischer
@@ -663,8 +681,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tournage
-Dates de tournage : 21 mars 2005 au 29 juin 2005
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dates de tournage : 21 mars 2005 au 29 juin 2005
 Lieux de tournage : Vancouver (Colombie-Britannique, Canada)</t>
         </is>
       </c>
@@ -693,7 +716,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Turn Around, Look at Me de The Lettermen
 Love Rollercoaster de The Ohio Players
@@ -734,13 +759,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Accueil critique
-Le film a obtenu globalement des critiques très mitigées. Il recueille 43 % de critiques positives, avec un score moyen de 5.1/10 et sur la base de 116 critiques collectées, sur le site Rotten Tomatoes[10]. Sur Metacritic, il obtient un score de 41/100, sur la base de 28 critiques collectées[11].
-Box-office
-Recettes mondiales : 118 890 272 $[2]
-Recettes États-Unis : 54 098 051 $[2]
-Nombre d'entrées en France : 842 875[12]
-Ventes DVD : 18 655 850 $[13]</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a obtenu globalement des critiques très mitigées. Il recueille 43 % de critiques positives, avec un score moyen de 5.1/10 et sur la base de 116 critiques collectées, sur le site Rotten Tomatoes. Sur Metacritic, il obtient un score de 41/100, sur la base de 28 critiques collectées.
+</t>
         </is>
       </c>
     </row>
@@ -765,14 +791,90 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Recettes mondiales : 118 890 272 $
+Recettes États-Unis : 54 098 051 $
+Nombre d'entrées en France : 842 875
+Ventes DVD : 18 655 850 $</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Entre 2006 et 2007, Destination finale 3 a été sélectionné 6 fois dans diverses catégories et n'a remporté aucune récompense[14],[15].
-Nominations
-Prix Fangoria Chainsaw 2006 :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2006 et 2007, Destination finale 3 a été sélectionné 6 fois dans diverses catégories et n'a remporté aucune récompense,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Fangoria Chainsaw 2006 :
 Nombre de corps le plus élevé,
 Les meurtres les plus excitants (pour «accident au volant»),
 Ligne qui a tué (Meilleur Bon mot) pour Yan-Kay Crystal Lowe[Note 3].
@@ -783,31 +885,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Destination_finale_3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Destination_finale_3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Au départ, le film devait être en relief et des lunettes appropriées auraient été distribuées à l'entrée des salles comme pour Spy Kids 3 : Mission 3D, Les Dents de la Mer 3, ou encore Meurtres en 3 dimensions. David Richard Ellis, réalisateur de Destination finale 2, devait en être le scénariste et le croque-mort William Bludworth, incarné par Tony Todd dans les deux premiers opus, devait y tenir un rôle majeur, apportant des réponses concernant la mort et les deux premiers volets. Kimberly Corman (Andrea Joy Cook) et Thomas Burke (Michael Landes) devaient y faire une apparition pour y mourir. Le titre de travail était d'ailleurs Destination finale 3D. Les rumeurs annonçaient également que Wendy allait être incarnée par Kelly Osbourne.
 Dès le départ, l'accident-phare du film fut prévu comme étant celui d'un roller coaster.
